--- a/ofe_lab/temp/9.xlsx
+++ b/ofe_lab/temp/9.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dima\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\OFE_lab\ofe_lab\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,24 +24,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Иванов Иван Иванович</t>
-  </si>
-  <si>
-    <t>Петров Петр Петрович</t>
-  </si>
-  <si>
-    <t>Сидоров Сидор Сидоровач</t>
-  </si>
-  <si>
-    <t>Дмитриев Дмитрий Дмитриевич</t>
-  </si>
-  <si>
-    <t>Егоров Егор Егорович</t>
-  </si>
-  <si>
-    <t>Ярославов Ярослав Ярославич</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Иванов</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>Иванович</t>
+  </si>
+  <si>
+    <t>Петров</t>
+  </si>
+  <si>
+    <t>Петр</t>
+  </si>
+  <si>
+    <t>Петрович</t>
+  </si>
+  <si>
+    <t>Сидоров</t>
+  </si>
+  <si>
+    <t>Сидор</t>
+  </si>
+  <si>
+    <t>Сидорович</t>
+  </si>
+  <si>
+    <t>Дмитриев</t>
+  </si>
+  <si>
+    <t>Дмитрий</t>
+  </si>
+  <si>
+    <t>Дмитриевич</t>
+  </si>
+  <si>
+    <t>Егоров</t>
+  </si>
+  <si>
+    <t>Егор</t>
+  </si>
+  <si>
+    <t>Егорович</t>
+  </si>
+  <si>
+    <t>Ярославов</t>
+  </si>
+  <si>
+    <t>Ярослав</t>
+  </si>
+  <si>
+    <t>Ярославович</t>
   </si>
 </sst>
 </file>
@@ -360,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -371,52 +407,88 @@
     <col min="2" max="2" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
